--- a/biology/Histoire de la zoologie et de la botanique/Santiago_Castroviejo_Bolibar/Santiago_Castroviejo_Bolibar.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Santiago_Castroviejo_Bolibar/Santiago_Castroviejo_Bolibar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Santiago Castroviejo Bolíbar, né le 27 août 1946 à Tirán (es) (Moaña) et mort à Madrid le 30 septembre 2009 (à 63 ans), est un botaniste espagnol.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a mené l'essentiel de sa carrière au Consejo Superior de Investigaciones Científicas et plus particulièrement au Real Jardín Botánico de Madrid.
-Il était l'éditeur ou le coéditeur des 15 premiers volumes de la Flora Iberica[1].
-L’Association des herbiers ibéro-macaronésiens (AHIM) lui a dédié son prix AHIM de la recherche botanique[2].
+Il était l'éditeur ou le coéditeur des 15 premiers volumes de la Flora Iberica.
+L’Association des herbiers ibéro-macaronésiens (AHIM) lui a dédié son prix AHIM de la recherche botanique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était né dans une famille galicienne et était le fils du poète et journaliste franquiste espagnol José María Castroviejo y Blanco-Cicerón (es), l'arrière-petit-fils de l'archéologue espagnol Ricardo Blanco-Cicerón (es), le frère du biologiste espagnol Javier Castroviejo y Bolíbar (es), le frère de l'ambassadeur espagnol José María Castroviejo y Bolíbar (es), et le père du biologiste et zoologiste Santiago Castroviejo-Fisher.
 </t>
